--- a/BackTest/2020-01-20 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-20 BackTest LUNA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3104,11 +3104,9 @@
         <v>16491.73392918</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>228.8</v>
       </c>
@@ -3145,11 +3143,9 @@
         <v>28059.61722918</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>228.8</v>
       </c>
@@ -3225,11 +3221,9 @@
         <v>26902.83532917999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>228.8</v>
       </c>
@@ -3266,11 +3260,9 @@
         <v>21891.83282918</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>228.8</v>
       </c>
@@ -3307,11 +3299,9 @@
         <v>20369.64452917999</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>232.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>228.8</v>
       </c>
@@ -3348,11 +3338,9 @@
         <v>21054.96702917999</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>228.8</v>
       </c>
@@ -3389,11 +3377,9 @@
         <v>14379.09992917999</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>228.8</v>
       </c>
@@ -3430,11 +3416,9 @@
         <v>14379.09992917999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>228.8</v>
       </c>
@@ -3471,11 +3455,9 @@
         <v>14379.09992917999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>228.8</v>
       </c>
@@ -3512,11 +3494,9 @@
         <v>11756.22862917999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>228.8</v>
       </c>
@@ -3553,11 +3533,9 @@
         <v>16189.10692917999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>230.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>228.8</v>
       </c>
@@ -3594,11 +3572,9 @@
         <v>12609.99832917999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>228.8</v>
       </c>
@@ -3635,11 +3611,9 @@
         <v>17186.66352917999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>230.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>228.8</v>
       </c>
@@ -3676,11 +3650,9 @@
         <v>14867.35652917999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>228.8</v>
       </c>
@@ -3717,11 +3689,9 @@
         <v>20385.87382917999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>228.8</v>
       </c>
@@ -3758,11 +3728,9 @@
         <v>20385.87382917999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>228.8</v>
       </c>
@@ -3799,11 +3767,9 @@
         <v>23586.32952917999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>228.8</v>
       </c>
@@ -3840,11 +3806,9 @@
         <v>20749.46332917999</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>228.8</v>
       </c>
@@ -3881,11 +3845,9 @@
         <v>23251.70952917999</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>228.8</v>
       </c>
@@ -3922,11 +3884,9 @@
         <v>21033.75932917999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>228.8</v>
       </c>
@@ -3963,11 +3923,9 @@
         <v>21033.75932917999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>228.8</v>
       </c>
@@ -4004,11 +3962,9 @@
         <v>24168.63672917999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>228.8</v>
       </c>
@@ -4045,11 +4001,9 @@
         <v>20386.45992917999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>228.8</v>
       </c>
@@ -4086,11 +4040,9 @@
         <v>17131.31682917999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>228.8</v>
       </c>
@@ -4127,11 +4079,9 @@
         <v>18338.99832917999</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>228.8</v>
       </c>
@@ -4168,11 +4118,9 @@
         <v>19457.59282917999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>228.8</v>
       </c>
@@ -4209,11 +4157,9 @@
         <v>23054.30022917999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>228.8</v>
       </c>
@@ -4250,11 +4196,9 @@
         <v>26120.62432917999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>228.8</v>
       </c>
@@ -4291,11 +4235,9 @@
         <v>26838.52682917999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>228.8</v>
       </c>
@@ -4332,11 +4274,9 @@
         <v>25458.57112917999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>228.8</v>
       </c>
@@ -4373,11 +4313,9 @@
         <v>23440.80592917999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>231.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>228.8</v>
       </c>
@@ -4414,11 +4352,9 @@
         <v>20762.90342917999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>228.8</v>
       </c>
@@ -4455,11 +4391,9 @@
         <v>18745.66342917999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>228.8</v>
       </c>
@@ -4496,11 +4430,9 @@
         <v>60605.92129891999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>228.8</v>
       </c>
@@ -4537,11 +4469,9 @@
         <v>46004.94409891999</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>242.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>228.8</v>
       </c>
@@ -4851,11 +4781,9 @@
         <v>78589.28148721998</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>235.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>228.8</v>
       </c>
@@ -5243,11 +5171,9 @@
         <v>-20680.04821278001</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>228.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>228.8</v>
       </c>
@@ -5284,11 +5210,9 @@
         <v>-17985.33181278</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>229.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>228.8</v>
       </c>
@@ -5325,11 +5249,9 @@
         <v>-18706.70051278</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>228.8</v>
       </c>
@@ -5366,11 +5288,9 @@
         <v>-16577.95461278001</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>228.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>228.8</v>
       </c>
@@ -5407,11 +5327,9 @@
         <v>-11834.70121278001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>229.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>228.8</v>
       </c>
@@ -5448,11 +5366,9 @@
         <v>-16049.63211278001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>230.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>228.8</v>
       </c>
@@ -5489,11 +5405,9 @@
         <v>-15226.36351278001</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>230.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>228.8</v>
       </c>
@@ -5530,11 +5444,9 @@
         <v>-11973.70211278001</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>230.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>228.8</v>
       </c>
@@ -5571,11 +5483,9 @@
         <v>-8991.379112780007</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>228.8</v>
       </c>
@@ -5612,11 +5522,9 @@
         <v>-13915.90631278001</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>233.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>228.8</v>
       </c>
@@ -5653,11 +5561,9 @@
         <v>-11015.32531278001</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>228.8</v>
       </c>
@@ -5694,11 +5600,9 @@
         <v>-15725.35931278001</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>228.8</v>
       </c>
@@ -5735,11 +5639,9 @@
         <v>-13094.57811278001</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>228.8</v>
       </c>
@@ -5893,11 +5795,9 @@
         <v>-15414.13281278001</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
         <v>228.8</v>
       </c>
@@ -6207,11 +6107,9 @@
         <v>-4944.052156140009</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>228.8</v>
       </c>
@@ -6248,11 +6146,9 @@
         <v>1595.641543859991</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>228.8</v>
       </c>
@@ -6289,11 +6185,9 @@
         <v>-4159.537456140009</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>235</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>228.8</v>
       </c>
@@ -6330,11 +6224,9 @@
         <v>-7258.666456140009</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>232.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>228.8</v>
       </c>
@@ -6371,11 +6263,9 @@
         <v>-7258.666456140009</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>231.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>228.8</v>
       </c>
@@ -6451,11 +6341,9 @@
         <v>-16299.63355614001</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>228.8</v>
       </c>
@@ -6843,11 +6731,9 @@
         <v>-20886.90375614001</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>228.8</v>
       </c>
@@ -6923,11 +6809,9 @@
         <v>-19451.33055614001</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>228.8</v>
       </c>
@@ -6964,11 +6848,9 @@
         <v>-19451.33055614001</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>228.8</v>
       </c>
@@ -7005,11 +6887,9 @@
         <v>-19451.33055614001</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>228.8</v>
       </c>
@@ -7202,11 +7082,9 @@
         <v>-18668.20405614001</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>228.8</v>
       </c>
@@ -7243,11 +7121,9 @@
         <v>-18668.20405614001</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>231.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>228.8</v>
       </c>
@@ -7284,11 +7160,9 @@
         <v>-20790.79335614001</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>231.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>228.8</v>
       </c>
@@ -7325,11 +7199,9 @@
         <v>-24477.80865614001</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>228.8</v>
       </c>
@@ -7366,11 +7238,9 @@
         <v>-22250.26405614001</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>228.8</v>
       </c>
@@ -7407,11 +7277,9 @@
         <v>-18636.62935614001</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>228.8</v>
       </c>
@@ -7448,11 +7316,9 @@
         <v>-20241.35245614001</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>228.8</v>
       </c>
@@ -7489,11 +7355,9 @@
         <v>-19645.63495614001</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>228.8</v>
       </c>
@@ -7530,11 +7394,9 @@
         <v>-19645.63495614001</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>228.8</v>
       </c>
@@ -7571,11 +7433,9 @@
         <v>-17405.00935614001</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>228.8</v>
       </c>
@@ -7612,11 +7472,9 @@
         <v>-13941.87955614001</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>228.8</v>
       </c>
@@ -7653,11 +7511,9 @@
         <v>-16448.32175614001</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>231.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>228.8</v>
       </c>
@@ -7694,11 +7550,9 @@
         <v>-16448.32175614001</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>228.8</v>
       </c>
@@ -7735,11 +7589,9 @@
         <v>-18027.09885614001</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>228.8</v>
       </c>
@@ -7776,11 +7628,9 @@
         <v>-18027.09885614001</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>228.8</v>
       </c>
@@ -7817,11 +7667,9 @@
         <v>-15042.19785614001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>228.8</v>
       </c>
@@ -7858,11 +7706,9 @@
         <v>-15042.19785614001</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>228.8</v>
       </c>
@@ -7899,11 +7745,9 @@
         <v>-17634.31065614001</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>228.8</v>
       </c>
@@ -7940,11 +7784,9 @@
         <v>-15561.15605614001</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>228.8</v>
       </c>
@@ -7981,11 +7823,9 @@
         <v>-10790.11315614001</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>228.8</v>
       </c>
@@ -8022,11 +7862,9 @@
         <v>-14624.94175614001</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>228.8</v>
       </c>
@@ -8063,11 +7901,9 @@
         <v>-14624.94175614001</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>228.8</v>
       </c>
@@ -8104,11 +7940,9 @@
         <v>-14624.94175614001</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>228.8</v>
       </c>
@@ -8145,11 +7979,9 @@
         <v>-14624.94175614001</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>228.8</v>
       </c>
@@ -8186,11 +8018,9 @@
         <v>-10991.06715614001</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>228.8</v>
       </c>
@@ -8227,11 +8057,9 @@
         <v>-10991.06715614001</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>228.8</v>
       </c>
@@ -8268,11 +8096,9 @@
         <v>-12821.98325614001</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>228.8</v>
       </c>
@@ -8309,11 +8135,9 @@
         <v>-12821.98325614001</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>228.8</v>
       </c>
@@ -8350,11 +8174,9 @@
         <v>-12821.98325614001</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>228.8</v>
       </c>
@@ -8391,11 +8213,9 @@
         <v>-12821.98325614001</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>228.8</v>
       </c>
@@ -8432,11 +8252,9 @@
         <v>-12821.98325614001</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>228.8</v>
       </c>
@@ -8473,11 +8291,9 @@
         <v>-12821.98325614001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>228.8</v>
       </c>
@@ -8514,11 +8330,9 @@
         <v>-12821.98325614001</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>228.8</v>
       </c>
@@ -8555,11 +8369,9 @@
         <v>-9611.629756140013</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
         <v>228.8</v>
       </c>
@@ -8596,11 +8408,9 @@
         <v>-9611.629756140013</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>228.8</v>
       </c>
@@ -8637,11 +8447,9 @@
         <v>-9611.629756140013</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
         <v>228.8</v>
       </c>
@@ -8678,11 +8486,9 @@
         <v>-4946.548356140013</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
         <v>228.8</v>
       </c>
@@ -8719,11 +8525,9 @@
         <v>-6882.981756140013</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>232.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>228.8</v>
       </c>
@@ -8760,11 +8564,9 @@
         <v>-10579.93645614001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>232.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
         <v>228.8</v>
       </c>
@@ -8801,11 +8603,9 @@
         <v>-10579.93645614001</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>228.8</v>
       </c>
@@ -8842,11 +8642,9 @@
         <v>-10579.93645614001</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
         <v>228.8</v>
       </c>
@@ -8883,11 +8681,9 @@
         <v>-9568.500356140012</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>228.8</v>
       </c>
@@ -8924,11 +8720,9 @@
         <v>-10968.57115614001</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>232.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>228.8</v>
       </c>
@@ -8965,11 +8759,9 @@
         <v>-10968.57115614001</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>232.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
         <v>228.8</v>
       </c>
@@ -9006,11 +8798,9 @@
         <v>-14132.84255614001</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>232.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
         <v>228.8</v>
       </c>
@@ -9047,11 +8837,9 @@
         <v>-14132.84255614001</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
         <v>228.8</v>
       </c>
@@ -9088,11 +8876,9 @@
         <v>-14132.84255614001</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>228.8</v>
       </c>
@@ -9129,11 +8915,9 @@
         <v>-14132.84255614001</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
         <v>228.8</v>
       </c>
@@ -9170,11 +8954,9 @@
         <v>-15826.50435614001</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
         <v>228.8</v>
       </c>
@@ -9211,11 +8993,9 @@
         <v>-16859.39905614001</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
         <v>228.8</v>
       </c>
@@ -9252,11 +9032,9 @@
         <v>-16859.39905614001</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
         <v>228.8</v>
       </c>
@@ -9293,11 +9071,9 @@
         <v>-19127.91445614001</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
         <v>228.8</v>
       </c>
@@ -9334,11 +9110,9 @@
         <v>-19127.91445614001</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>228.8</v>
       </c>
@@ -9375,11 +9149,9 @@
         <v>-19038.83455614001</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
         <v>228.8</v>
       </c>
@@ -9416,11 +9188,9 @@
         <v>-18228.82165614001</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
         <v>228.8</v>
       </c>
@@ -9457,11 +9227,9 @@
         <v>-20582.65735614001</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>228.8</v>
       </c>
@@ -9498,11 +9266,9 @@
         <v>-19671.93515614001</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
         <v>228.8</v>
       </c>
@@ -9539,11 +9305,9 @@
         <v>-20333.01495614001</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>228.8</v>
       </c>
@@ -9580,11 +9344,9 @@
         <v>-20243.92025614001</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>228.8</v>
       </c>
@@ -9621,11 +9383,9 @@
         <v>-18956.43125614</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>228.8</v>
       </c>
@@ -9662,11 +9422,9 @@
         <v>-18956.43125614</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>228.8</v>
       </c>
@@ -9703,11 +9461,9 @@
         <v>-18956.43125614</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
         <v>228.8</v>
       </c>
@@ -9744,11 +9500,9 @@
         <v>-17513.79155614</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
         <v>228.8</v>
       </c>
@@ -9785,11 +9539,9 @@
         <v>-20383.96345614001</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
         <v>228.8</v>
       </c>
@@ -9826,11 +9578,9 @@
         <v>-20383.96345614001</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>228.8</v>
       </c>
@@ -9867,11 +9617,9 @@
         <v>-20383.96345614001</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>228.8</v>
       </c>
@@ -9908,11 +9656,9 @@
         <v>-20383.96345614001</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>228.8</v>
       </c>
@@ -9949,11 +9695,9 @@
         <v>-20383.96345614001</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>228.8</v>
       </c>
@@ -9990,11 +9734,9 @@
         <v>-20383.96345614001</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
         <v>228.8</v>
       </c>
@@ -10031,11 +9773,9 @@
         <v>-20383.96345614001</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
         <v>228.8</v>
       </c>
@@ -10072,11 +9812,9 @@
         <v>-22960.20495614001</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
         <v>228.8</v>
       </c>
@@ -10113,11 +9851,9 @@
         <v>-22960.20495614001</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
         <v>228.8</v>
       </c>
@@ -10154,11 +9890,9 @@
         <v>-22960.20495614001</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
         <v>228.8</v>
       </c>
@@ -10195,11 +9929,9 @@
         <v>-23589.51555614001</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
         <v>228.8</v>
       </c>
@@ -10236,11 +9968,9 @@
         <v>-24628.06045614001</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
         <v>228.8</v>
       </c>
@@ -10277,11 +10007,9 @@
         <v>-24628.06045614001</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>228.8</v>
       </c>
@@ -10318,11 +10046,9 @@
         <v>-24628.06045614001</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
         <v>228.8</v>
       </c>
@@ -10359,11 +10085,9 @@
         <v>-23496.80435614001</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
         <v>228.8</v>
       </c>
@@ -10400,11 +10124,9 @@
         <v>-24024.87115614001</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
         <v>228.8</v>
       </c>
@@ -10441,11 +10163,9 @@
         <v>-24024.87115614001</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
         <v>228.8</v>
       </c>
@@ -10482,11 +10202,9 @@
         <v>-23935.86975614001</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
         <v>228.8</v>
       </c>
@@ -10523,11 +10241,9 @@
         <v>-23846.81435614001</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
         <v>228.8</v>
       </c>
@@ -10564,11 +10280,9 @@
         <v>-23846.81435614001</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
         <v>228.8</v>
       </c>
@@ -10605,11 +10319,9 @@
         <v>-23846.81435614001</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
         <v>228.8</v>
       </c>
@@ -10646,11 +10358,9 @@
         <v>-23846.81435614001</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
         <v>228.8</v>
       </c>
@@ -10687,11 +10397,9 @@
         <v>-23846.81435614001</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
         <v>228.8</v>
       </c>
@@ -10728,11 +10436,9 @@
         <v>-23846.81435614001</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
         <v>228.8</v>
       </c>
@@ -10769,11 +10475,9 @@
         <v>-23846.81435614001</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
         <v>228.8</v>
       </c>
@@ -10810,11 +10514,9 @@
         <v>-23757.77695614001</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
         <v>228.8</v>
       </c>
@@ -10851,11 +10553,9 @@
         <v>-24626.57875614001</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
         <v>228.8</v>
       </c>
@@ -10892,11 +10592,9 @@
         <v>-24537.53045614001</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
         <v>228.8</v>
       </c>
@@ -10933,11 +10631,9 @@
         <v>-24537.53045614001</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
         <v>228.8</v>
       </c>
@@ -10974,11 +10670,9 @@
         <v>-24537.53045614001</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
         <v>228.8</v>
       </c>
@@ -11015,11 +10709,9 @@
         <v>-23601.29675614001</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
         <v>228.8</v>
       </c>
@@ -11056,11 +10748,9 @@
         <v>-12945.61417125001</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>232.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
         <v>228.8</v>
       </c>
@@ -11097,11 +10787,9 @@
         <v>-19208.38007125001</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>241.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
         <v>228.8</v>
       </c>
@@ -11216,11 +10904,9 @@
         <v>-23797.32567125001</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>234.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
         <v>228.8</v>
       </c>
@@ -11257,11 +10943,9 @@
         <v>-25393.37787125001</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>235.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
         <v>228.8</v>
       </c>
@@ -11298,11 +10982,9 @@
         <v>-28471.74007125001</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>235.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
         <v>228.8</v>
       </c>
@@ -11339,11 +11021,9 @@
         <v>-24748.46947125001</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>235.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
         <v>228.8</v>
       </c>
@@ -11380,11 +11060,9 @@
         <v>-25255.99587125</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>235.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
         <v>228.8</v>
       </c>
@@ -11421,11 +11099,9 @@
         <v>-22421.94887125001</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>235.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
         <v>228.8</v>
       </c>
@@ -11462,11 +11138,9 @@
         <v>-24873.77257125001</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>235.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
         <v>228.8</v>
       </c>
@@ -11503,11 +11177,9 @@
         <v>-24784.71697125001</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>235.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
         <v>228.8</v>
       </c>
@@ -11544,11 +11216,9 @@
         <v>-24678.84477125001</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>235.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
         <v>228.8</v>
       </c>
@@ -11585,11 +11255,9 @@
         <v>-23855.52297125</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>236</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
         <v>228.8</v>
       </c>
@@ -11626,11 +11294,9 @@
         <v>-25141.34817125</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>236.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
         <v>228.8</v>
       </c>
@@ -12876,11 +12542,9 @@
         <v>20696.20142875001</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>234.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
         <v>228.8</v>
       </c>
@@ -13502,11 +13166,9 @@
         <v>21344.64302875</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
         <v>228.8</v>
       </c>
@@ -13543,11 +13205,9 @@
         <v>25012.06412875</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>232.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
         <v>228.8</v>
       </c>
@@ -13584,11 +13244,9 @@
         <v>19999.98492875</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>232.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
         <v>228.8</v>
       </c>
@@ -13625,11 +13283,9 @@
         <v>15756.45942875</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
         <v>228.8</v>
       </c>
@@ -13666,11 +13322,9 @@
         <v>20834.42962875</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
         <v>228.8</v>
       </c>
@@ -13707,11 +13361,9 @@
         <v>19437.73062875</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>234.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
         <v>228.8</v>
       </c>
@@ -13748,11 +13400,9 @@
         <v>16640.46982875</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
         <v>228.8</v>
       </c>
@@ -13789,11 +13439,9 @@
         <v>20357.23332875</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
         <v>228.8</v>
       </c>
@@ -14376,11 +14024,9 @@
         <v>7363.647438729997</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
         <v>228.8</v>
       </c>
@@ -14417,11 +14063,9 @@
         <v>10748.33613873</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>230.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
         <v>228.8</v>
       </c>
@@ -14458,11 +14102,9 @@
         <v>8945.113038729998</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
         <v>228.8</v>
       </c>
@@ -14538,11 +14180,9 @@
         <v>813.2326387299981</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>229.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
         <v>228.8</v>
       </c>
@@ -14579,11 +14219,9 @@
         <v>3988.243538729998</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>229.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
         <v>228.8</v>
       </c>
@@ -14620,11 +14258,9 @@
         <v>9013.383438729998</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>229.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
         <v>228.8</v>
       </c>
@@ -14661,11 +14297,9 @@
         <v>6363.982538729997</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
         <v>228.8</v>
       </c>
@@ -14702,11 +14336,9 @@
         <v>8019.818438729997</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>229.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
         <v>228.8</v>
       </c>
@@ -14743,11 +14375,9 @@
         <v>-959.028261270003</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>230.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
         <v>228.8</v>
       </c>
@@ -14784,11 +14414,9 @@
         <v>-959.028261270003</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>228.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
         <v>228.8</v>
       </c>
@@ -14825,11 +14453,9 @@
         <v>1779.387438729997</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>228.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
         <v>228.8</v>
       </c>
@@ -14866,11 +14492,9 @@
         <v>3775.786138729997</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>228.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
         <v>228.8</v>
       </c>
@@ -14907,11 +14531,9 @@
         <v>756.4669387299973</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
         <v>228.8</v>
       </c>
@@ -14948,11 +14570,9 @@
         <v>2774.168338729997</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>228.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
         <v>228.8</v>
       </c>
@@ -14989,11 +14609,9 @@
         <v>-1199.506061270003</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>228.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
         <v>228.8</v>
       </c>
@@ -15030,11 +14648,9 @@
         <v>3043.290238729997</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>228.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
         <v>228.8</v>
       </c>
@@ -15071,11 +14687,9 @@
         <v>-2395.891761270002</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>230.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
         <v>228.8</v>
       </c>
@@ -15112,11 +14726,9 @@
         <v>-2385.843661270002</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>229.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>228.8</v>
       </c>
@@ -15153,11 +14765,9 @@
         <v>-1191.139261270002</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
         <v>228.8</v>
       </c>
@@ -15194,11 +14804,9 @@
         <v>-2481.836261270002</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>230.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
         <v>228.8</v>
       </c>
@@ -15235,11 +14843,9 @@
         <v>-1968.890261270002</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>230.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
         <v>228.8</v>
       </c>
@@ -15276,11 +14882,9 @@
         <v>-16617.92126127</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>230.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
         <v>228.8</v>
       </c>
@@ -15317,11 +14921,9 @@
         <v>-13516.71086127</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>228.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
         <v>228.8</v>
       </c>
@@ -15358,11 +14960,9 @@
         <v>-11682.27776127</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>230.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
         <v>228.8</v>
       </c>
@@ -15399,11 +14999,9 @@
         <v>-12666.65776127</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>230.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
         <v>228.8</v>
       </c>
@@ -15440,11 +15038,9 @@
         <v>-12098.31776127</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>230.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
         <v>228.8</v>
       </c>
@@ -15481,11 +15077,9 @@
         <v>-16509.53556127</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>230.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
         <v>228.8</v>
       </c>
@@ -15522,11 +15116,9 @@
         <v>-18256.94576127</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>230.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
         <v>228.8</v>
       </c>
@@ -15563,11 +15155,9 @@
         <v>-17688.60576127</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>230.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
         <v>228.8</v>
       </c>
@@ -15604,11 +15194,9 @@
         <v>-17599.53396127</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>230.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="n">
         <v>228.8</v>
       </c>
@@ -15645,11 +15233,9 @@
         <v>-17068.18976127</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>230.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="n">
         <v>228.8</v>
       </c>
@@ -15686,11 +15272,9 @@
         <v>-16481.49686127</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>230.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="n">
         <v>228.8</v>
       </c>
@@ -15727,11 +15311,9 @@
         <v>-20014.31836126999</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>230.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="n">
         <v>228.8</v>
       </c>
@@ -15768,11 +15350,9 @@
         <v>-20014.31836126999</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>230.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="n">
         <v>228.8</v>
       </c>
@@ -15809,11 +15389,9 @@
         <v>-20014.31836126999</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>230.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
         <v>228.8</v>
       </c>
@@ -15850,11 +15428,9 @@
         <v>-19393.22096127</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>230.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
         <v>228.8</v>
       </c>
@@ -15891,11 +15467,9 @@
         <v>-15559.67066127</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>230.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="n">
         <v>228.8</v>
       </c>
@@ -15932,11 +15506,9 @@
         <v>-14095.74046127</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
         <v>228.8</v>
       </c>
@@ -15973,11 +15545,9 @@
         <v>-13282.52886127</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
         <v>228.8</v>
       </c>
@@ -16014,11 +15584,9 @@
         <v>-10907.94366127</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
         <v>228.8</v>
       </c>
@@ -16055,11 +15623,9 @@
         <v>-13594.13386126999</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
         <v>228.8</v>
       </c>
@@ -16096,11 +15662,9 @@
         <v>-12106.19786126999</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>231.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
         <v>228.8</v>
       </c>
@@ -16137,11 +15701,9 @@
         <v>-12106.19786126999</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="n">
         <v>228.8</v>
       </c>
@@ -16178,11 +15740,9 @@
         <v>-12106.19786126999</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="n">
         <v>228.8</v>
       </c>
@@ -16219,11 +15779,9 @@
         <v>-12106.19786126999</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="n">
         <v>228.8</v>
       </c>
@@ -16260,11 +15818,9 @@
         <v>-12106.19786126999</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="n">
         <v>228.8</v>
       </c>
@@ -16301,11 +15857,9 @@
         <v>-16311.33076126999</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
         <v>228.8</v>
       </c>
@@ -16342,11 +15896,9 @@
         <v>-15067.47396126999</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
         <v>228.8</v>
       </c>
@@ -16383,11 +15935,9 @@
         <v>-12971.71306126999</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
         <v>228.8</v>
       </c>
@@ -16424,11 +15974,9 @@
         <v>-15729.61966127</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
         <v>228.8</v>
       </c>
@@ -16465,11 +16013,9 @@
         <v>-14997.18166126999</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>231.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
         <v>228.8</v>
       </c>
@@ -16506,11 +16052,9 @@
         <v>-14908.12906126999</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
         <v>228.8</v>
       </c>
@@ -16547,11 +16091,9 @@
         <v>-17599.99866126999</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
         <v>228.8</v>
       </c>
@@ -16588,11 +16130,9 @@
         <v>-13828.43256126999</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
         <v>228.8</v>
       </c>
@@ -16629,11 +16169,9 @@
         <v>-14539.11346126999</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
         <v>228.8</v>
       </c>
@@ -16670,11 +16208,9 @@
         <v>-13611.50476126999</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
         <v>228.8</v>
       </c>
@@ -16711,11 +16247,9 @@
         <v>-13522.50256126999</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
         <v>228.8</v>
       </c>
@@ -16752,11 +16286,9 @@
         <v>-13422.50256126999</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
         <v>228.8</v>
       </c>
@@ -16793,11 +16325,9 @@
         <v>-13422.50256126999</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
         <v>228.8</v>
       </c>
@@ -16834,11 +16364,9 @@
         <v>-12012.54206126999</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
         <v>228.8</v>
       </c>
@@ -16875,11 +16403,9 @@
         <v>-9684.663261269992</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
         <v>228.8</v>
       </c>
@@ -16916,11 +16442,9 @@
         <v>-9156.638761269993</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
         <v>228.8</v>
       </c>
@@ -16957,11 +16481,9 @@
         <v>-8804.873061269993</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
         <v>228.8</v>
       </c>
@@ -16998,11 +16520,9 @@
         <v>-8804.873061269993</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>233.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
         <v>228.8</v>
       </c>
@@ -17039,11 +16559,9 @@
         <v>-10558.91076126999</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>233.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
         <v>228.8</v>
       </c>
@@ -17080,11 +16598,9 @@
         <v>-11528.38216126999</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
         <v>228.8</v>
       </c>
@@ -17121,11 +16637,9 @@
         <v>-11795.90386126999</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
         <v>228.8</v>
       </c>
@@ -17162,11 +16676,9 @@
         <v>-12854.38986126999</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>232.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
         <v>228.8</v>
       </c>
@@ -17203,11 +16715,9 @@
         <v>-16145.75296126999</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>231.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
         <v>228.8</v>
       </c>
@@ -17244,11 +16754,9 @@
         <v>-19600.65486127</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
         <v>228.8</v>
       </c>
@@ -17285,11 +16793,9 @@
         <v>-32136.48286126999</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
         <v>228.8</v>
       </c>
@@ -17326,11 +16832,9 @@
         <v>-29879.41956126999</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>230.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
         <v>228.8</v>
       </c>
@@ -17367,11 +16871,9 @@
         <v>-32962.80496126999</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
         <v>228.8</v>
       </c>
@@ -17408,11 +16910,9 @@
         <v>-25897.16426126999</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>230.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
         <v>228.8</v>
       </c>
@@ -17449,11 +16949,9 @@
         <v>-25897.16426126999</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
         <v>228.8</v>
       </c>
@@ -17490,11 +16988,9 @@
         <v>-25897.16426126999</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
         <v>228.8</v>
       </c>
@@ -17531,11 +17027,9 @@
         <v>-23624.31256126999</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
         <v>228.8</v>
       </c>
@@ -17572,11 +17066,9 @@
         <v>-25709.22796126999</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
         <v>228.8</v>
       </c>
@@ -17613,11 +17105,9 @@
         <v>-21013.73486126999</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
         <v>228.8</v>
       </c>
@@ -17654,11 +17144,9 @@
         <v>-26558.82866126999</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
         <v>228.8</v>
       </c>
@@ -17695,11 +17183,9 @@
         <v>-26558.82866126999</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
         <v>228.8</v>
       </c>
@@ -17736,11 +17222,9 @@
         <v>-25020.97666126999</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
         <v>228.8</v>
       </c>
@@ -17777,11 +17261,9 @@
         <v>-27152.71396126999</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
         <v>228.8</v>
       </c>
@@ -17818,11 +17300,9 @@
         <v>-22181.47186126999</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
         <v>228.8</v>
       </c>
@@ -17859,11 +17339,9 @@
         <v>-22181.47186126999</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
         <v>228.8</v>
       </c>
@@ -17900,11 +17378,9 @@
         <v>-22181.47186126999</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
         <v>228.8</v>
       </c>
@@ -17941,11 +17417,9 @@
         <v>-23567.40136126999</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
         <v>228.8</v>
       </c>
@@ -17982,11 +17456,9 @@
         <v>-17519.86926126999</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
         <v>228.8</v>
       </c>
@@ -18023,11 +17495,9 @@
         <v>-21771.56046126999</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
         <v>228.8</v>
       </c>
@@ -18064,11 +17534,9 @@
         <v>-21771.56046126999</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
         <v>228.8</v>
       </c>
@@ -18105,11 +17573,9 @@
         <v>-21771.56046126999</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
         <v>228.8</v>
       </c>
@@ -18146,11 +17612,9 @@
         <v>-21771.56046126999</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
         <v>228.8</v>
       </c>
@@ -18187,11 +17651,9 @@
         <v>-21771.56046126999</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
         <v>228.8</v>
       </c>
@@ -18228,11 +17690,9 @@
         <v>-21771.56046126999</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
         <v>228.8</v>
       </c>
@@ -18269,11 +17729,9 @@
         <v>-21771.56046126999</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
         <v>228.8</v>
       </c>
@@ -18310,11 +17768,9 @@
         <v>-21771.56046126999</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
         <v>228.8</v>
       </c>
@@ -18351,11 +17807,9 @@
         <v>-23400.73046127</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>231.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
         <v>228.8</v>
       </c>
@@ -18392,11 +17846,9 @@
         <v>-25107.60476126999</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
         <v>228.8</v>
       </c>
@@ -18433,11 +17885,9 @@
         <v>-25107.60476126999</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
         <v>228.8</v>
       </c>
@@ -18474,11 +17924,9 @@
         <v>-25107.60476126999</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
         <v>228.8</v>
       </c>
@@ -18515,11 +17963,9 @@
         <v>-25107.60476126999</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
         <v>228.8</v>
       </c>
@@ -18556,11 +18002,9 @@
         <v>-25107.60476126999</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
         <v>228.8</v>
       </c>
@@ -18597,11 +18041,9 @@
         <v>-25107.60476126999</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
         <v>228.8</v>
       </c>
@@ -18638,11 +18080,9 @@
         <v>-25107.60476126999</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
         <v>228.8</v>
       </c>
@@ -18679,11 +18119,9 @@
         <v>-25107.60476126999</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
         <v>228.8</v>
       </c>
@@ -18720,11 +18158,9 @@
         <v>-22487.13556127</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
         <v>228.8</v>
       </c>
@@ -18761,11 +18197,9 @@
         <v>-22487.13556127</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
         <v>228.8</v>
       </c>
@@ -18802,11 +18236,9 @@
         <v>-22487.13556127</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
         <v>228.8</v>
       </c>
@@ -18843,11 +18275,9 @@
         <v>-22487.13556127</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
         <v>228.8</v>
       </c>
@@ -18884,11 +18314,9 @@
         <v>-22487.13556127</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
         <v>228.8</v>
       </c>
@@ -18925,11 +18353,9 @@
         <v>-22487.13556127</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
         <v>228.8</v>
       </c>
@@ -18966,11 +18392,9 @@
         <v>-22487.13556127</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
         <v>228.8</v>
       </c>
@@ -19007,11 +18431,9 @@
         <v>-22487.13556127</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
         <v>228.8</v>
       </c>
@@ -19048,11 +18470,9 @@
         <v>-22487.13556127</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
         <v>228.8</v>
       </c>
@@ -19089,11 +18509,9 @@
         <v>-20605.20046127</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
         <v>228.8</v>
       </c>
@@ -19130,11 +18548,9 @@
         <v>-18631.34066127</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
         <v>228.8</v>
       </c>
@@ -19171,11 +18587,9 @@
         <v>-15459.57686127</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>231.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
         <v>228.8</v>
       </c>
@@ -19212,11 +18626,9 @@
         <v>-14882.50676127</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="n">
         <v>228.8</v>
       </c>
@@ -19253,11 +18665,9 @@
         <v>-13379.69226127</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="n">
         <v>228.8</v>
       </c>
@@ -19294,11 +18704,9 @@
         <v>-13379.69226127</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
         <v>228.8</v>
       </c>
@@ -19335,11 +18743,9 @@
         <v>-13164.45326127</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
         <v>228.8</v>
       </c>
@@ -19376,11 +18782,9 @@
         <v>-13164.45326127</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
         <v>228.8</v>
       </c>
@@ -19417,11 +18821,9 @@
         <v>-15270.60986127</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
         <v>228.8</v>
       </c>
@@ -19458,11 +18860,9 @@
         <v>-15270.60986127</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
         <v>228.8</v>
       </c>
@@ -19499,11 +18899,9 @@
         <v>-15270.60986127</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
         <v>228.8</v>
       </c>
@@ -19540,11 +18938,9 @@
         <v>-15270.60986127</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
         <v>228.8</v>
       </c>
@@ -19581,11 +18977,9 @@
         <v>-15270.60986127</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="n">
         <v>228.8</v>
       </c>
@@ -19622,11 +19016,9 @@
         <v>-15270.60986127</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="n">
         <v>228.8</v>
       </c>
@@ -19663,11 +19055,9 @@
         <v>-14264.52056127</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="n">
         <v>228.8</v>
       </c>
@@ -19704,11 +19094,9 @@
         <v>-5919.564461269998</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>232.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="n">
         <v>228.8</v>
       </c>
@@ -19745,11 +19133,9 @@
         <v>-1852.631861269998</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="n">
         <v>228.8</v>
       </c>
@@ -19786,11 +19172,9 @@
         <v>-1674.460561269998</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="n">
         <v>228.8</v>
       </c>
@@ -19827,11 +19211,9 @@
         <v>-2918.697961269998</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>233.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="n">
         <v>228.8</v>
       </c>
@@ -19868,11 +19250,9 @@
         <v>-1919.882161269998</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
       <c r="J481" t="n">
         <v>228.8</v>
       </c>
@@ -19909,11 +19289,9 @@
         <v>11208.78188329</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
       <c r="J482" t="n">
         <v>228.8</v>
       </c>
@@ -19950,11 +19328,9 @@
         <v>34607.09213873</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>237.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
       <c r="J483" t="n">
         <v>228.8</v>
       </c>
@@ -21668,11 +21044,9 @@
         <v>-178.049155389996</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>236.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="n">
         <v>228.8</v>
       </c>
@@ -34579,11 +33953,9 @@
         <v>-39910.12675538002</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
-      </c>
-      <c r="I858" t="n">
-        <v>231.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
       <c r="J858" t="n">
         <v>228.8</v>
       </c>
@@ -34620,11 +33992,9 @@
         <v>-41528.01725538002</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>232.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
       <c r="J859" t="n">
         <v>228.8</v>
       </c>
@@ -34661,11 +34031,9 @@
         <v>-42984.79435538002</v>
       </c>
       <c r="H860" t="n">
-        <v>1</v>
-      </c>
-      <c r="I860" t="n">
-        <v>232.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
       <c r="J860" t="n">
         <v>228.8</v>
       </c>
@@ -34702,11 +34070,9 @@
         <v>-41327.58725538002</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>231.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
         <v>228.8</v>
       </c>
@@ -34743,11 +34109,9 @@
         <v>-41327.58725538002</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
         <v>228.8</v>
       </c>
@@ -34784,11 +34148,9 @@
         <v>-38306.97575538002</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
         <v>228.8</v>
       </c>
@@ -34825,11 +34187,9 @@
         <v>-38306.97575538002</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
         <v>228.8</v>
       </c>
@@ -34866,11 +34226,9 @@
         <v>-35712.05185538002</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
         <v>228.8</v>
       </c>
@@ -34907,11 +34265,9 @@
         <v>-34764.61495538002</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
         <v>228.8</v>
       </c>
@@ -34948,11 +34304,9 @@
         <v>-38392.24125538002</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>233.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
         <v>228.8</v>
       </c>
@@ -34989,11 +34343,9 @@
         <v>-42497.19815538002</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
         <v>228.8</v>
       </c>
@@ -35030,11 +34382,9 @@
         <v>-42497.19815538002</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>233.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
         <v>228.8</v>
       </c>
@@ -35344,11 +34694,9 @@
         <v>-49783.90795538002</v>
       </c>
       <c r="H877" t="n">
-        <v>1</v>
-      </c>
-      <c r="I877" t="n">
-        <v>233.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
       <c r="J877" t="n">
         <v>228.8</v>
       </c>
@@ -35424,11 +34772,9 @@
         <v>-52269.81715538002</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
-      </c>
-      <c r="I879" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
       <c r="J879" t="n">
         <v>228.8</v>
       </c>
@@ -35465,11 +34811,9 @@
         <v>-50989.01275538002</v>
       </c>
       <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
       <c r="J880" t="n">
         <v>228.8</v>
       </c>
@@ -35506,11 +34850,9 @@
         <v>-11952.10725538002</v>
       </c>
       <c r="H881" t="n">
-        <v>1</v>
-      </c>
-      <c r="I881" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
         <v>228.8</v>
       </c>
@@ -35586,11 +34928,9 @@
         <v>-12529.90475538002</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
-        <v>233.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
         <v>228.8</v>
       </c>
@@ -35627,11 +34967,9 @@
         <v>-15228.27785538002</v>
       </c>
       <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
         <v>228.8</v>
       </c>
@@ -35668,11 +35006,9 @@
         <v>-14513.49185538002</v>
       </c>
       <c r="H885" t="n">
-        <v>1</v>
-      </c>
-      <c r="I885" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
         <v>228.8</v>
       </c>
@@ -35709,11 +35045,9 @@
         <v>-12126.98295538002</v>
       </c>
       <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
         <v>228.8</v>
       </c>
@@ -35750,11 +35084,9 @@
         <v>-12813.33875538002</v>
       </c>
       <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
         <v>228.8</v>
       </c>
@@ -35791,11 +35123,9 @@
         <v>-12813.33875538002</v>
       </c>
       <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
         <v>228.8</v>
       </c>
@@ -35832,11 +35162,9 @@
         <v>-8341.81285538002</v>
       </c>
       <c r="H889" t="n">
-        <v>1</v>
-      </c>
-      <c r="I889" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
         <v>228.8</v>
       </c>
@@ -35873,11 +35201,9 @@
         <v>-4073.38435538002</v>
       </c>
       <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>233.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
         <v>228.8</v>
       </c>
@@ -35953,11 +35279,9 @@
         <v>-8787.796955380018</v>
       </c>
       <c r="H892" t="n">
-        <v>1</v>
-      </c>
-      <c r="I892" t="n">
-        <v>233.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
         <v>228.8</v>
       </c>
@@ -35994,11 +35318,9 @@
         <v>-7483.667455380018</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="n">
         <v>228.8</v>
       </c>
@@ -36035,11 +35357,9 @@
         <v>-3420.011955380018</v>
       </c>
       <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>233.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
       <c r="J894" t="n">
         <v>228.8</v>
       </c>
@@ -36076,11 +35396,9 @@
         <v>-5510.444055380018</v>
       </c>
       <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>233.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
       <c r="J895" t="n">
         <v>228.8</v>
       </c>
@@ -36117,11 +35435,9 @@
         <v>-3330.314155380018</v>
       </c>
       <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
       <c r="J896" t="n">
         <v>228.8</v>
       </c>
@@ -36197,11 +35513,9 @@
         <v>-4058.454555380018</v>
       </c>
       <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>233.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
       <c r="J898" t="n">
         <v>228.8</v>
       </c>
@@ -36238,11 +35552,9 @@
         <v>-3464.888855380018</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>233.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
       <c r="J899" t="n">
         <v>228.8</v>
       </c>
@@ -36279,11 +35591,9 @@
         <v>-3375.805455380018</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>233.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
       <c r="J900" t="n">
         <v>228.8</v>
       </c>
@@ -36320,11 +35630,9 @@
         <v>-11019.36715538002</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>233.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
       <c r="J901" t="n">
         <v>228.8</v>
       </c>
@@ -36361,11 +35669,9 @@
         <v>-11019.36715538002</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
       <c r="J902" t="n">
         <v>228.8</v>
       </c>
@@ -36402,11 +35708,9 @@
         <v>-14512.30635538002</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>233</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
       <c r="J903" t="n">
         <v>228.8</v>
       </c>
@@ -36443,11 +35747,9 @@
         <v>-14512.30635538002</v>
       </c>
       <c r="H904" t="n">
-        <v>1</v>
-      </c>
-      <c r="I904" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
         <v>228.8</v>
       </c>
@@ -36484,11 +35786,9 @@
         <v>-14512.30635538002</v>
       </c>
       <c r="H905" t="n">
-        <v>1</v>
-      </c>
-      <c r="I905" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
         <v>228.8</v>
       </c>
@@ -36525,11 +35825,9 @@
         <v>-16936.30085538002</v>
       </c>
       <c r="H906" t="n">
-        <v>1</v>
-      </c>
-      <c r="I906" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
         <v>228.8</v>
       </c>
@@ -36566,11 +35864,9 @@
         <v>-16936.30085538002</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
       <c r="J907" t="n">
         <v>228.8</v>
       </c>
@@ -36607,11 +35903,9 @@
         <v>-16936.30085538002</v>
       </c>
       <c r="H908" t="n">
-        <v>1</v>
-      </c>
-      <c r="I908" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
         <v>228.8</v>
       </c>
@@ -36648,11 +35942,9 @@
         <v>-11232.60305538002</v>
       </c>
       <c r="H909" t="n">
-        <v>1</v>
-      </c>
-      <c r="I909" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
         <v>228.8</v>
       </c>
@@ -36689,11 +35981,9 @@
         <v>-11232.60305538002</v>
       </c>
       <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
         <v>228.8</v>
       </c>
@@ -36730,11 +36020,9 @@
         <v>-11232.60305538002</v>
       </c>
       <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
         <v>228.8</v>
       </c>
@@ -36771,11 +36059,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
         <v>228.8</v>
       </c>
@@ -36812,11 +36098,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H913" t="n">
-        <v>1</v>
-      </c>
-      <c r="I913" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
         <v>228.8</v>
       </c>
@@ -36853,11 +36137,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
         <v>228.8</v>
       </c>
@@ -36894,11 +36176,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H915" t="n">
-        <v>1</v>
-      </c>
-      <c r="I915" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
         <v>228.8</v>
       </c>
@@ -36935,11 +36215,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
         <v>228.8</v>
       </c>
@@ -36976,11 +36254,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
         <v>228.8</v>
       </c>
@@ -37017,11 +36293,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
       <c r="J918" t="n">
         <v>228.8</v>
       </c>
@@ -37058,11 +36332,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
       <c r="J919" t="n">
         <v>228.8</v>
       </c>
@@ -37099,11 +36371,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H920" t="n">
-        <v>1</v>
-      </c>
-      <c r="I920" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
       <c r="J920" t="n">
         <v>228.8</v>
       </c>
@@ -37140,11 +36410,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
         <v>228.8</v>
       </c>
@@ -37181,11 +36449,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
         <v>228.8</v>
       </c>
@@ -37222,11 +36488,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
         <v>228.8</v>
       </c>
@@ -37263,11 +36527,9 @@
         <v>-12219.30555538002</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
         <v>228.8</v>
       </c>
@@ -37304,11 +36566,9 @@
         <v>-9242.685655380017</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
         <v>228.8</v>
       </c>
@@ -37345,11 +36605,9 @@
         <v>-9242.685655380017</v>
       </c>
       <c r="H926" t="n">
-        <v>1</v>
-      </c>
-      <c r="I926" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I926" t="inlineStr"/>
       <c r="J926" t="n">
         <v>228.8</v>
       </c>
@@ -37386,11 +36644,9 @@
         <v>-10595.94045538002</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I927" t="inlineStr"/>
       <c r="J927" t="n">
         <v>228.8</v>
       </c>
@@ -37427,11 +36683,9 @@
         <v>-10595.94045538002</v>
       </c>
       <c r="H928" t="n">
-        <v>1</v>
-      </c>
-      <c r="I928" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I928" t="inlineStr"/>
       <c r="J928" t="n">
         <v>228.8</v>
       </c>
@@ -37468,11 +36722,9 @@
         <v>-7333.181155380018</v>
       </c>
       <c r="H929" t="n">
-        <v>1</v>
-      </c>
-      <c r="I929" t="n">
-        <v>232.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I929" t="inlineStr"/>
       <c r="J929" t="n">
         <v>228.8</v>
       </c>
@@ -37509,11 +36761,9 @@
         <v>-2895.044055380018</v>
       </c>
       <c r="H930" t="n">
-        <v>1</v>
-      </c>
-      <c r="I930" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I930" t="inlineStr"/>
       <c r="J930" t="n">
         <v>228.8</v>
       </c>
@@ -37550,11 +36800,9 @@
         <v>-3795.833055380018</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
-      </c>
-      <c r="I931" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
       <c r="J931" t="n">
         <v>228.8</v>
       </c>
@@ -37591,11 +36839,9 @@
         <v>-3795.833055380018</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
-      </c>
-      <c r="I932" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
       <c r="J932" t="n">
         <v>228.8</v>
       </c>
@@ -37632,11 +36878,9 @@
         <v>-3795.833055380018</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
-      </c>
-      <c r="I933" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
       <c r="J933" t="n">
         <v>228.8</v>
       </c>
@@ -37673,11 +36917,9 @@
         <v>-2094.543855380018</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
-      </c>
-      <c r="I934" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
       <c r="J934" t="n">
         <v>228.8</v>
       </c>
@@ -37714,11 +36956,9 @@
         <v>1424.878844619982</v>
       </c>
       <c r="H935" t="n">
-        <v>1</v>
-      </c>
-      <c r="I935" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I935" t="inlineStr"/>
       <c r="J935" t="n">
         <v>228.8</v>
       </c>
@@ -37755,11 +36995,9 @@
         <v>187.3303446199823</v>
       </c>
       <c r="H936" t="n">
-        <v>1</v>
-      </c>
-      <c r="I936" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I936" t="inlineStr"/>
       <c r="J936" t="n">
         <v>228.8</v>
       </c>
@@ -37796,11 +37034,9 @@
         <v>5176.176944619982</v>
       </c>
       <c r="H937" t="n">
-        <v>1</v>
-      </c>
-      <c r="I937" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I937" t="inlineStr"/>
       <c r="J937" t="n">
         <v>228.8</v>
       </c>
@@ -37837,11 +37073,9 @@
         <v>2505.649844619983</v>
       </c>
       <c r="H938" t="n">
-        <v>1</v>
-      </c>
-      <c r="I938" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
         <v>228.8</v>
       </c>
@@ -37878,11 +37112,9 @@
         <v>2683.750244619982</v>
       </c>
       <c r="H939" t="n">
-        <v>1</v>
-      </c>
-      <c r="I939" t="n">
-        <v>233.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I939" t="inlineStr"/>
       <c r="J939" t="n">
         <v>228.8</v>
       </c>
@@ -37919,11 +37151,9 @@
         <v>1485.571944619982</v>
       </c>
       <c r="H940" t="n">
-        <v>1</v>
-      </c>
-      <c r="I940" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I940" t="inlineStr"/>
       <c r="J940" t="n">
         <v>228.8</v>
       </c>
@@ -37960,11 +37190,9 @@
         <v>2811.291944619982</v>
       </c>
       <c r="H941" t="n">
-        <v>1</v>
-      </c>
-      <c r="I941" t="n">
-        <v>233.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I941" t="inlineStr"/>
       <c r="J941" t="n">
         <v>228.8</v>
       </c>
@@ -38001,11 +37229,9 @@
         <v>1684.596244619982</v>
       </c>
       <c r="H942" t="n">
-        <v>1</v>
-      </c>
-      <c r="I942" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
         <v>228.8</v>
       </c>
@@ -38042,11 +37268,9 @@
         <v>1684.596244619982</v>
       </c>
       <c r="H943" t="n">
-        <v>1</v>
-      </c>
-      <c r="I943" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
         <v>228.8</v>
       </c>
@@ -38083,11 +37307,9 @@
         <v>-1244.928855380018</v>
       </c>
       <c r="H944" t="n">
-        <v>1</v>
-      </c>
-      <c r="I944" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
         <v>228.8</v>
       </c>
@@ -38124,11 +37346,9 @@
         <v>918.1263446199821</v>
       </c>
       <c r="H945" t="n">
-        <v>1</v>
-      </c>
-      <c r="I945" t="n">
-        <v>233.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
         <v>228.8</v>
       </c>
@@ -38165,11 +37385,9 @@
         <v>1438.597944619982</v>
       </c>
       <c r="H946" t="n">
-        <v>1</v>
-      </c>
-      <c r="I946" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
         <v>228.8</v>
       </c>
@@ -38206,11 +37424,9 @@
         <v>1726.402344619982</v>
       </c>
       <c r="H947" t="n">
-        <v>1</v>
-      </c>
-      <c r="I947" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
         <v>228.8</v>
       </c>
@@ -38247,11 +37463,9 @@
         <v>1815.488544619982</v>
       </c>
       <c r="H948" t="n">
-        <v>1</v>
-      </c>
-      <c r="I948" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
         <v>228.8</v>
       </c>
@@ -38288,11 +37502,9 @@
         <v>1068.304444619982</v>
       </c>
       <c r="H949" t="n">
-        <v>1</v>
-      </c>
-      <c r="I949" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
         <v>228.8</v>
       </c>
@@ -38329,11 +37541,9 @@
         <v>1068.304444619982</v>
       </c>
       <c r="H950" t="n">
-        <v>1</v>
-      </c>
-      <c r="I950" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
         <v>228.8</v>
       </c>
@@ -38370,11 +37580,9 @@
         <v>1068.304444619982</v>
       </c>
       <c r="H951" t="n">
-        <v>1</v>
-      </c>
-      <c r="I951" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
         <v>228.8</v>
       </c>
@@ -38411,11 +37619,9 @@
         <v>1068.304444619982</v>
       </c>
       <c r="H952" t="n">
-        <v>1</v>
-      </c>
-      <c r="I952" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
         <v>228.8</v>
       </c>
@@ -38452,11 +37658,9 @@
         <v>1068.304444619982</v>
       </c>
       <c r="H953" t="n">
-        <v>1</v>
-      </c>
-      <c r="I953" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
         <v>228.8</v>
       </c>
@@ -38493,11 +37697,9 @@
         <v>1068.304444619982</v>
       </c>
       <c r="H954" t="n">
-        <v>1</v>
-      </c>
-      <c r="I954" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
         <v>228.8</v>
       </c>
@@ -38534,11 +37736,9 @@
         <v>333.2737446199822</v>
       </c>
       <c r="H955" t="n">
-        <v>1</v>
-      </c>
-      <c r="I955" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
         <v>228.8</v>
       </c>
@@ -38575,11 +37775,9 @@
         <v>333.2737446199822</v>
       </c>
       <c r="H956" t="n">
-        <v>1</v>
-      </c>
-      <c r="I956" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
         <v>228.8</v>
       </c>
@@ -38616,11 +37814,9 @@
         <v>5026.201944619983</v>
       </c>
       <c r="H957" t="n">
-        <v>1</v>
-      </c>
-      <c r="I957" t="n">
-        <v>233.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
         <v>228.8</v>
       </c>
@@ -38657,11 +37853,9 @@
         <v>5204.336844619983</v>
       </c>
       <c r="H958" t="n">
-        <v>1</v>
-      </c>
-      <c r="I958" t="n">
-        <v>233.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
         <v>228.8</v>
       </c>
@@ -38698,11 +37892,9 @@
         <v>5204.336844619983</v>
       </c>
       <c r="H959" t="n">
-        <v>1</v>
-      </c>
-      <c r="I959" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
         <v>228.8</v>
       </c>
@@ -38739,11 +37931,9 @@
         <v>5204.336844619983</v>
       </c>
       <c r="H960" t="n">
-        <v>1</v>
-      </c>
-      <c r="I960" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
         <v>228.8</v>
       </c>
@@ -38780,11 +37970,9 @@
         <v>5204.336844619983</v>
       </c>
       <c r="H961" t="n">
-        <v>1</v>
-      </c>
-      <c r="I961" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
         <v>228.8</v>
       </c>
@@ -38821,11 +38009,9 @@
         <v>5204.336844619983</v>
       </c>
       <c r="H962" t="n">
-        <v>1</v>
-      </c>
-      <c r="I962" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
         <v>228.8</v>
       </c>
@@ -38862,11 +38048,9 @@
         <v>5382.383944619983</v>
       </c>
       <c r="H963" t="n">
-        <v>1</v>
-      </c>
-      <c r="I963" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
         <v>228.8</v>
       </c>
@@ -38903,11 +38087,9 @@
         <v>5382.383944619983</v>
       </c>
       <c r="H964" t="n">
-        <v>1</v>
-      </c>
-      <c r="I964" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
         <v>228.8</v>
       </c>
@@ -38944,11 +38126,9 @@
         <v>5382.383944619983</v>
       </c>
       <c r="H965" t="n">
-        <v>1</v>
-      </c>
-      <c r="I965" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
         <v>228.8</v>
       </c>
@@ -38985,11 +38165,9 @@
         <v>5382.383944619983</v>
       </c>
       <c r="H966" t="n">
-        <v>1</v>
-      </c>
-      <c r="I966" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
       <c r="J966" t="n">
         <v>228.8</v>
       </c>
@@ -39026,11 +38204,9 @@
         <v>5382.383944619983</v>
       </c>
       <c r="H967" t="n">
-        <v>1</v>
-      </c>
-      <c r="I967" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I967" t="inlineStr"/>
       <c r="J967" t="n">
         <v>228.8</v>
       </c>
@@ -39067,11 +38243,9 @@
         <v>5382.383944619983</v>
       </c>
       <c r="H968" t="n">
-        <v>1</v>
-      </c>
-      <c r="I968" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
       <c r="J968" t="n">
         <v>228.8</v>
       </c>
@@ -39108,11 +38282,9 @@
         <v>5382.383944619983</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
-      </c>
-      <c r="I969" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
       <c r="J969" t="n">
         <v>228.8</v>
       </c>
@@ -39149,11 +38321,9 @@
         <v>5382.383944619983</v>
       </c>
       <c r="H970" t="n">
-        <v>1</v>
-      </c>
-      <c r="I970" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I970" t="inlineStr"/>
       <c r="J970" t="n">
         <v>228.8</v>
       </c>
@@ -39190,11 +38360,9 @@
         <v>5382.383944619983</v>
       </c>
       <c r="H971" t="n">
-        <v>1</v>
-      </c>
-      <c r="I971" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I971" t="inlineStr"/>
       <c r="J971" t="n">
         <v>228.8</v>
       </c>
@@ -39231,11 +38399,9 @@
         <v>3978.133144619983</v>
       </c>
       <c r="H972" t="n">
-        <v>1</v>
-      </c>
-      <c r="I972" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I972" t="inlineStr"/>
       <c r="J972" t="n">
         <v>228.8</v>
       </c>
@@ -39272,11 +38438,9 @@
         <v>3978.133144619983</v>
       </c>
       <c r="H973" t="n">
-        <v>1</v>
-      </c>
-      <c r="I973" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I973" t="inlineStr"/>
       <c r="J973" t="n">
         <v>228.8</v>
       </c>
@@ -39313,11 +38477,9 @@
         <v>3978.133144619983</v>
       </c>
       <c r="H974" t="n">
-        <v>1</v>
-      </c>
-      <c r="I974" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I974" t="inlineStr"/>
       <c r="J974" t="n">
         <v>228.8</v>
       </c>
@@ -39354,11 +38516,9 @@
         <v>4156.271944619983</v>
       </c>
       <c r="H975" t="n">
-        <v>1</v>
-      </c>
-      <c r="I975" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I975" t="inlineStr"/>
       <c r="J975" t="n">
         <v>228.8</v>
       </c>
@@ -39395,11 +38555,9 @@
         <v>4938.977344619982</v>
       </c>
       <c r="H976" t="n">
-        <v>1</v>
-      </c>
-      <c r="I976" t="n">
-        <v>234.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I976" t="inlineStr"/>
       <c r="J976" t="n">
         <v>228.8</v>
       </c>
@@ -39436,11 +38594,9 @@
         <v>4938.977344619982</v>
       </c>
       <c r="H977" t="n">
-        <v>1</v>
-      </c>
-      <c r="I977" t="n">
-        <v>234.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I977" t="inlineStr"/>
       <c r="J977" t="n">
         <v>228.8</v>
       </c>
@@ -39477,11 +38633,9 @@
         <v>4938.977344619982</v>
       </c>
       <c r="H978" t="n">
-        <v>1</v>
-      </c>
-      <c r="I978" t="n">
-        <v>234.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I978" t="inlineStr"/>
       <c r="J978" t="n">
         <v>228.8</v>
       </c>
@@ -39518,11 +38672,9 @@
         <v>5364.519444619982</v>
       </c>
       <c r="H979" t="n">
-        <v>1</v>
-      </c>
-      <c r="I979" t="n">
-        <v>234.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I979" t="inlineStr"/>
       <c r="J979" t="n">
         <v>228.8</v>
       </c>
@@ -39559,11 +38711,9 @@
         <v>4196.172744619982</v>
       </c>
       <c r="H980" t="n">
-        <v>1</v>
-      </c>
-      <c r="I980" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I980" t="inlineStr"/>
       <c r="J980" t="n">
         <v>228.8</v>
       </c>
@@ -39600,11 +38750,9 @@
         <v>7752.586244619983</v>
       </c>
       <c r="H981" t="n">
-        <v>1</v>
-      </c>
-      <c r="I981" t="n">
-        <v>234.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I981" t="inlineStr"/>
       <c r="J981" t="n">
         <v>228.8</v>
       </c>
@@ -39641,11 +38789,9 @@
         <v>10363.78824461998</v>
       </c>
       <c r="H982" t="n">
-        <v>1</v>
-      </c>
-      <c r="I982" t="n">
-        <v>234.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I982" t="inlineStr"/>
       <c r="J982" t="n">
         <v>228.8</v>
       </c>
@@ -39682,11 +38828,9 @@
         <v>10901.79374461998</v>
       </c>
       <c r="H983" t="n">
-        <v>1</v>
-      </c>
-      <c r="I983" t="n">
-        <v>234.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I983" t="inlineStr"/>
       <c r="J983" t="n">
         <v>228.8</v>
       </c>
@@ -39723,11 +38867,9 @@
         <v>9052.151644619982</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
-      </c>
-      <c r="I984" t="n">
-        <v>235.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
       <c r="J984" t="n">
         <v>228.8</v>
       </c>
@@ -40193,11 +39335,9 @@
         <v>5105.333144619983</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
-      </c>
-      <c r="I996" t="n">
-        <v>234.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
       <c r="J996" t="n">
         <v>228.8</v>
       </c>
@@ -40273,11 +39413,9 @@
         <v>5105.333144619983</v>
       </c>
       <c r="H998" t="n">
-        <v>1</v>
-      </c>
-      <c r="I998" t="n">
-        <v>234.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I998" t="inlineStr"/>
       <c r="J998" t="n">
         <v>228.8</v>
       </c>
@@ -40626,11 +39764,9 @@
         <v>2893.191144619983</v>
       </c>
       <c r="H1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1007" t="n">
-        <v>234.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
       <c r="J1007" t="n">
         <v>228.8</v>
       </c>
@@ -42149,11 +41285,9 @@
         <v>-23958.78715693001</v>
       </c>
       <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>231.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="n">
         <v>228.8</v>
       </c>
@@ -42190,11 +41324,9 @@
         <v>-24984.32215693001</v>
       </c>
       <c r="H1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1047" t="n">
-        <v>230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="n">
         <v>228.8</v>
       </c>
@@ -42231,11 +41363,9 @@
         <v>-25953.12095693001</v>
       </c>
       <c r="H1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1048" t="n">
-        <v>229.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="n">
         <v>228.8</v>
       </c>
@@ -42272,11 +41402,9 @@
         <v>-37642.89125693002</v>
       </c>
       <c r="H1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="n">
         <v>228.8</v>
       </c>
@@ -42313,11 +41441,9 @@
         <v>-41457.63515693002</v>
       </c>
       <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>229.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="n">
         <v>228.8</v>
       </c>
@@ -42354,11 +41480,9 @@
         <v>-41457.63515693002</v>
       </c>
       <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>229.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="n">
         <v>228.8</v>
       </c>
@@ -42395,11 +41519,9 @@
         <v>-36109.72135693001</v>
       </c>
       <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>229.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="n">
         <v>228.8</v>
       </c>
@@ -42436,11 +41558,9 @@
         <v>-33323.10525693002</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>230.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="n">
         <v>228.8</v>
       </c>
@@ -42477,11 +41597,9 @@
         <v>-30359.84175693001</v>
       </c>
       <c r="H1054" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1054" t="n">
-        <v>232</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="n">
         <v>228.8</v>
       </c>
@@ -42518,11 +41636,9 @@
         <v>-30359.84175693001</v>
       </c>
       <c r="H1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1055" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="n">
         <v>228.8</v>
       </c>
@@ -42559,11 +41675,9 @@
         <v>-34504.11165693001</v>
       </c>
       <c r="H1056" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1056" t="n">
-        <v>233.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="n">
         <v>228.8</v>
       </c>
@@ -42600,11 +41714,9 @@
         <v>-30057.35295693002</v>
       </c>
       <c r="H1057" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="n">
         <v>228.8</v>
       </c>
@@ -42641,11 +41753,9 @@
         <v>-30057.35295693002</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1058" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="n">
         <v>228.8</v>
       </c>
@@ -42682,11 +41792,9 @@
         <v>10120.31311591998</v>
       </c>
       <c r="H1059" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1059" t="n">
-        <v>231.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="n">
         <v>228.8</v>
       </c>
@@ -42996,11 +42104,9 @@
         <v>26897.84191591998</v>
       </c>
       <c r="H1067" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1067" t="n">
-        <v>233.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="n">
         <v>228.8</v>
       </c>
@@ -43037,11 +42143,9 @@
         <v>26897.84191591998</v>
       </c>
       <c r="H1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1068" t="n">
-        <v>233.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="n">
         <v>228.8</v>
       </c>
@@ -43663,11 +42767,9 @@
         <v>5033.651124269981</v>
       </c>
       <c r="H1084" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1084" t="n">
-        <v>230.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="n">
         <v>228.8</v>
       </c>
@@ -43704,11 +42806,9 @@
         <v>6669.695224269981</v>
       </c>
       <c r="H1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1085" t="n">
-        <v>230.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="n">
         <v>228.8</v>
       </c>
@@ -43745,11 +42845,9 @@
         <v>-47082.31597573002</v>
       </c>
       <c r="H1086" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1086" t="n">
-        <v>231.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="n">
         <v>228.8</v>
       </c>
@@ -43903,11 +43001,9 @@
         <v>-48816.84897573002</v>
       </c>
       <c r="H1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1090" t="n">
-        <v>231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="n">
         <v>228.8</v>
       </c>
@@ -43944,11 +43040,9 @@
         <v>-42646.86357573002</v>
       </c>
       <c r="H1091" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1091" t="n">
-        <v>230.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="n">
         <v>228.8</v>
       </c>
@@ -43985,11 +43079,9 @@
         <v>-46926.57957573002</v>
       </c>
       <c r="H1092" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>232.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="n">
         <v>228.8</v>
       </c>
@@ -44026,11 +43118,9 @@
         <v>-45221.89967573002</v>
       </c>
       <c r="H1093" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>231.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="n">
         <v>228.8</v>
       </c>
@@ -44067,11 +43157,9 @@
         <v>-49837.18777573002</v>
       </c>
       <c r="H1094" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1094" t="n">
-        <v>232.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="n">
         <v>228.8</v>
       </c>
@@ -44108,11 +43196,9 @@
         <v>-47786.22347573002</v>
       </c>
       <c r="H1095" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1095" t="n">
-        <v>230.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="n">
         <v>228.8</v>
       </c>
@@ -44188,11 +43274,9 @@
         <v>-37504.55097573002</v>
       </c>
       <c r="H1097" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1097" t="n">
-        <v>232.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="n">
         <v>228.8</v>
       </c>
@@ -44229,11 +43313,9 @@
         <v>-2315.572275730017</v>
       </c>
       <c r="H1098" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1098" t="n">
-        <v>234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="n">
         <v>228.8</v>
       </c>
@@ -44621,7 +43703,7 @@
         <v>487122.91620238</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="n">
@@ -44629,13 +43711,15 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L1108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1108" t="inlineStr"/>
+        <v>1.133111888111888</v>
+      </c>
+      <c r="M1108" t="n">
+        <v>1.0004372540446</v>
+      </c>
     </row>
     <row r="1109">
       <c r="A1109" s="1" t="n">
@@ -44660,17 +43744,11 @@
         <v>389047.32905369</v>
       </c>
       <c r="H1109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1109" t="inlineStr"/>
+      <c r="K1109" t="inlineStr"/>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -44699,17 +43777,11 @@
         <v>500441.61965369</v>
       </c>
       <c r="H1110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1110" t="inlineStr"/>
+      <c r="K1110" t="inlineStr"/>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -44738,17 +43810,11 @@
         <v>416513.73095369</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1111" t="inlineStr"/>
+      <c r="K1111" t="inlineStr"/>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -44777,17 +43843,11 @@
         <v>278228.20855369</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1112" t="inlineStr"/>
+      <c r="K1112" t="inlineStr"/>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -44816,17 +43876,11 @@
         <v>292568.62225369</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1113" t="inlineStr"/>
+      <c r="K1113" t="inlineStr"/>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -44855,17 +43909,11 @@
         <v>374634.27005369</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1114" t="inlineStr"/>
+      <c r="K1114" t="inlineStr"/>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -44894,17 +43942,11 @@
         <v>293152.77276577</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1115" t="inlineStr"/>
+      <c r="K1115" t="inlineStr"/>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -44933,17 +43975,11 @@
         <v>329843.41536577</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1116" t="inlineStr"/>
+      <c r="K1116" t="inlineStr"/>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -44975,14 +44011,8 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1117" t="inlineStr"/>
+      <c r="K1117" t="inlineStr"/>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -45014,14 +44044,8 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1118" t="inlineStr"/>
+      <c r="K1118" t="inlineStr"/>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -45053,14 +44077,8 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1119" t="inlineStr"/>
+      <c r="K1119" t="inlineStr"/>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -45092,14 +44110,8 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1120" t="inlineStr"/>
+      <c r="K1120" t="inlineStr"/>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -45131,14 +44143,8 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1121" t="inlineStr"/>
+      <c r="K1121" t="inlineStr"/>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -45170,14 +44176,8 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1122" t="inlineStr"/>
+      <c r="K1122" t="inlineStr"/>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -45209,14 +44209,8 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1123" t="inlineStr"/>
+      <c r="K1123" t="inlineStr"/>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -45248,14 +44242,8 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1124" t="inlineStr"/>
+      <c r="K1124" t="inlineStr"/>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -45287,14 +44275,8 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1125" t="inlineStr"/>
+      <c r="K1125" t="inlineStr"/>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -45326,14 +44308,8 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1126" t="inlineStr"/>
+      <c r="K1126" t="inlineStr"/>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -45365,14 +44341,8 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1127" t="inlineStr"/>
+      <c r="K1127" t="inlineStr"/>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -45404,14 +44374,8 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1128" t="inlineStr"/>
+      <c r="K1128" t="inlineStr"/>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -45443,14 +44407,8 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1129" t="inlineStr"/>
+      <c r="K1129" t="inlineStr"/>
       <c r="L1129" t="n">
         <v>1</v>
       </c>
@@ -45482,14 +44440,8 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1130" t="inlineStr"/>
+      <c r="K1130" t="inlineStr"/>
       <c r="L1130" t="n">
         <v>1</v>
       </c>
@@ -45521,14 +44473,8 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1131" t="inlineStr"/>
+      <c r="K1131" t="inlineStr"/>
       <c r="L1131" t="n">
         <v>1</v>
       </c>
@@ -45560,14 +44506,8 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1132" t="inlineStr"/>
+      <c r="K1132" t="inlineStr"/>
       <c r="L1132" t="n">
         <v>1</v>
       </c>
@@ -45599,14 +44539,8 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1133" t="inlineStr"/>
+      <c r="K1133" t="inlineStr"/>
       <c r="L1133" t="n">
         <v>1</v>
       </c>
@@ -45638,14 +44572,8 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1134" t="inlineStr"/>
+      <c r="K1134" t="inlineStr"/>
       <c r="L1134" t="n">
         <v>1</v>
       </c>
@@ -45677,14 +44605,8 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1135" t="inlineStr"/>
+      <c r="K1135" t="inlineStr"/>
       <c r="L1135" t="n">
         <v>1</v>
       </c>
@@ -45716,14 +44638,8 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1136" t="inlineStr"/>
+      <c r="K1136" t="inlineStr"/>
       <c r="L1136" t="n">
         <v>1</v>
       </c>
@@ -45755,14 +44671,8 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1137" t="inlineStr"/>
+      <c r="K1137" t="inlineStr"/>
       <c r="L1137" t="n">
         <v>1</v>
       </c>
@@ -45794,14 +44704,8 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1138" t="inlineStr"/>
+      <c r="K1138" t="inlineStr"/>
       <c r="L1138" t="n">
         <v>1</v>
       </c>
@@ -45833,14 +44737,8 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1139" t="inlineStr"/>
+      <c r="K1139" t="inlineStr"/>
       <c r="L1139" t="n">
         <v>1</v>
       </c>
@@ -45872,14 +44770,8 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1140" t="inlineStr"/>
+      <c r="K1140" t="inlineStr"/>
       <c r="L1140" t="n">
         <v>1</v>
       </c>
@@ -45911,14 +44803,8 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1141" t="inlineStr"/>
+      <c r="K1141" t="inlineStr"/>
       <c r="L1141" t="n">
         <v>1</v>
       </c>
@@ -45950,14 +44836,8 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1142" t="inlineStr"/>
+      <c r="K1142" t="inlineStr"/>
       <c r="L1142" t="n">
         <v>1</v>
       </c>
@@ -45989,14 +44869,8 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J1143" t="inlineStr"/>
+      <c r="K1143" t="inlineStr"/>
       <c r="L1143" t="n">
         <v>1</v>
       </c>
@@ -46025,23 +44899,15 @@
         <v>686395.5476785501</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>228.8</v>
-      </c>
-      <c r="K1144" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J1144" t="inlineStr"/>
+      <c r="K1144" t="inlineStr"/>
       <c r="L1144" t="n">
-        <v>1.193863636363637</v>
-      </c>
-      <c r="M1144" t="n">
-        <v>1.0004372540446</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M1144" t="inlineStr"/>
     </row>
     <row r="1145">
       <c r="A1145" s="1" t="n">
@@ -46066,7 +44932,7 @@
         <v>635189.0489956201</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -46099,7 +44965,7 @@
         <v>606679.5387956201</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -46132,7 +44998,7 @@
         <v>658478.02689562</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -46165,7 +45031,7 @@
         <v>665338.55827178</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -46198,7 +45064,7 @@
         <v>636332.03444373</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -46231,7 +45097,7 @@
         <v>613695.8128477701</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -46264,7 +45130,7 @@
         <v>562423.3665477701</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -46297,7 +45163,7 @@
         <v>568741.5758477701</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -46330,7 +45196,7 @@
         <v>568741.5758477701</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -46363,7 +45229,7 @@
         <v>504100.4869477701</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -46396,7 +45262,7 @@
         <v>454896.4963477701</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -46429,7 +45295,7 @@
         <v>543868.1193477701</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -46462,7 +45328,7 @@
         <v>530367.5056477701</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -46495,7 +45361,7 @@
         <v>466631.8966477701</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -46528,7 +45394,7 @@
         <v>429056.7282477701</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -46594,7 +45460,7 @@
         <v>430160.1048477701</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -46627,7 +45493,7 @@
         <v>416741.69004777</v>
       </c>
       <c r="H1162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="inlineStr"/>
@@ -46660,7 +45526,7 @@
         <v>385448.1937852901</v>
       </c>
       <c r="H1163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="inlineStr"/>
@@ -46693,7 +45559,7 @@
         <v>385448.1937852901</v>
       </c>
       <c r="H1164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="inlineStr"/>
@@ -46726,7 +45592,7 @@
         <v>385448.1937852901</v>
       </c>
       <c r="H1165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="inlineStr"/>
@@ -46759,7 +45625,7 @@
         <v>309898.7451852901</v>
       </c>
       <c r="H1166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="inlineStr"/>
@@ -46792,7 +45658,7 @@
         <v>355087.89448529</v>
       </c>
       <c r="H1167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="inlineStr"/>
@@ -46825,7 +45691,7 @@
         <v>308062.23958529</v>
       </c>
       <c r="H1168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="inlineStr"/>
@@ -46858,7 +45724,7 @@
         <v>292706.18158529</v>
       </c>
       <c r="H1169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="inlineStr"/>
@@ -46891,7 +45757,7 @@
         <v>299604.83988529</v>
       </c>
       <c r="H1170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="inlineStr"/>
@@ -46924,7 +45790,7 @@
         <v>224418.53258529</v>
       </c>
       <c r="H1171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="inlineStr"/>
@@ -46957,7 +45823,7 @@
         <v>209624.86168529</v>
       </c>
       <c r="H1172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="inlineStr"/>
@@ -46990,7 +45856,7 @@
         <v>214980.98738529</v>
       </c>
       <c r="H1173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="inlineStr"/>
@@ -47023,7 +45889,7 @@
         <v>178594.00118529</v>
       </c>
       <c r="H1174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="inlineStr"/>
@@ -47056,7 +45922,7 @@
         <v>94579.20718529006</v>
       </c>
       <c r="H1175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="inlineStr"/>
@@ -47089,7 +45955,7 @@
         <v>66031.11708529005</v>
       </c>
       <c r="H1176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="inlineStr"/>
@@ -47122,7 +45988,7 @@
         <v>8.058685290059657</v>
       </c>
       <c r="H1177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="inlineStr"/>
@@ -47155,7 +46021,7 @@
         <v>6280.26573156006</v>
       </c>
       <c r="H1178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="inlineStr"/>
@@ -47188,7 +46054,7 @@
         <v>-10083.93476843994</v>
       </c>
       <c r="H1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="inlineStr"/>
@@ -47221,7 +46087,7 @@
         <v>90.05593156006034</v>
       </c>
       <c r="H1180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="inlineStr"/>
@@ -49432,17 +48298,11 @@
         <v>-89054.56623877997</v>
       </c>
       <c r="H1247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1247" t="n">
-        <v>250.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="inlineStr"/>
-      <c r="K1247" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K1247" t="inlineStr"/>
       <c r="L1247" t="n">
         <v>1</v>
       </c>
@@ -49471,23 +48331,17 @@
         <v>-92345.76053877997</v>
       </c>
       <c r="H1248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1248" t="n">
-        <v>250.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="inlineStr"/>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K1248" t="inlineStr"/>
       <c r="L1248" t="n">
         <v>1</v>
       </c>
       <c r="M1248" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest LUNA.xlsx
+++ b/BackTest/2020-01-20 BackTest LUNA.xlsx
@@ -2694,11 +2694,9 @@
         <v>-1814.561700000002</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>228.8</v>
       </c>
@@ -2735,11 +2733,9 @@
         <v>-4152.233200000002</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>228.8</v>
       </c>
@@ -2776,11 +2772,9 @@
         <v>-1776.580100000002</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>228.8</v>
       </c>
@@ -2817,11 +2811,9 @@
         <v>-1776.580100000002</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>228.8</v>
       </c>
@@ -2858,11 +2850,9 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>228.8</v>
       </c>
@@ -2899,11 +2889,9 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>228.8</v>
       </c>
@@ -2940,11 +2928,9 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>228.8</v>
       </c>
@@ -2981,11 +2967,9 @@
         <v>-6219.009400000003</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>228.8</v>
       </c>
@@ -3022,11 +3006,9 @@
         <v>1894.353899999997</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>229.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>228.8</v>
       </c>
@@ -3063,11 +3045,9 @@
         <v>17737.84902918</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>229.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>228.8</v>
       </c>
@@ -43703,7 +43683,7 @@
         <v>487122.91620238</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="n">
@@ -43711,15 +43691,13 @@
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1108" t="n">
-        <v>1.133111888111888</v>
-      </c>
-      <c r="M1108" t="n">
-        <v>1.0004372540446</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M1108" t="inlineStr"/>
     </row>
     <row r="1109">
       <c r="A1109" s="1" t="n">
@@ -43744,11 +43722,17 @@
         <v>389047.32905369</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="inlineStr"/>
-      <c r="K1109" t="inlineStr"/>
+      <c r="J1109" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1109" t="n">
         <v>1</v>
       </c>
@@ -43777,11 +43761,17 @@
         <v>500441.61965369</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="inlineStr"/>
-      <c r="K1110" t="inlineStr"/>
+      <c r="J1110" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1110" t="n">
         <v>1</v>
       </c>
@@ -43810,11 +43800,17 @@
         <v>416513.73095369</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="inlineStr"/>
-      <c r="K1111" t="inlineStr"/>
+      <c r="J1111" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1111" t="n">
         <v>1</v>
       </c>
@@ -43843,11 +43839,17 @@
         <v>278228.20855369</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="inlineStr"/>
-      <c r="K1112" t="inlineStr"/>
+      <c r="J1112" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1112" t="n">
         <v>1</v>
       </c>
@@ -43876,11 +43878,17 @@
         <v>292568.62225369</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="inlineStr"/>
-      <c r="K1113" t="inlineStr"/>
+      <c r="J1113" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1113" t="n">
         <v>1</v>
       </c>
@@ -43909,11 +43917,17 @@
         <v>374634.27005369</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="inlineStr"/>
-      <c r="K1114" t="inlineStr"/>
+      <c r="J1114" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1114" t="n">
         <v>1</v>
       </c>
@@ -43942,11 +43956,17 @@
         <v>293152.77276577</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="inlineStr"/>
-      <c r="K1115" t="inlineStr"/>
+      <c r="J1115" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1115" t="n">
         <v>1</v>
       </c>
@@ -43975,11 +43995,17 @@
         <v>329843.41536577</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="inlineStr"/>
-      <c r="K1116" t="inlineStr"/>
+      <c r="J1116" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1116" t="n">
         <v>1</v>
       </c>
@@ -44011,8 +44037,14 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="inlineStr"/>
-      <c r="K1117" t="inlineStr"/>
+      <c r="J1117" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1117" t="n">
         <v>1</v>
       </c>
@@ -44044,8 +44076,14 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="inlineStr"/>
-      <c r="K1118" t="inlineStr"/>
+      <c r="J1118" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1118" t="n">
         <v>1</v>
       </c>
@@ -44077,8 +44115,14 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="inlineStr"/>
-      <c r="K1119" t="inlineStr"/>
+      <c r="J1119" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1119" t="n">
         <v>1</v>
       </c>
@@ -44110,8 +44154,14 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="inlineStr"/>
-      <c r="K1120" t="inlineStr"/>
+      <c r="J1120" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1120" t="n">
         <v>1</v>
       </c>
@@ -44143,8 +44193,14 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="inlineStr"/>
-      <c r="K1121" t="inlineStr"/>
+      <c r="J1121" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1121" t="n">
         <v>1</v>
       </c>
@@ -44176,8 +44232,14 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="inlineStr"/>
-      <c r="K1122" t="inlineStr"/>
+      <c r="J1122" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1122" t="n">
         <v>1</v>
       </c>
@@ -44209,8 +44271,14 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="inlineStr"/>
-      <c r="K1123" t="inlineStr"/>
+      <c r="J1123" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1123" t="n">
         <v>1</v>
       </c>
@@ -44242,8 +44310,14 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="inlineStr"/>
-      <c r="K1124" t="inlineStr"/>
+      <c r="J1124" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1124" t="n">
         <v>1</v>
       </c>
@@ -44275,8 +44349,14 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="inlineStr"/>
-      <c r="K1125" t="inlineStr"/>
+      <c r="J1125" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1125" t="n">
         <v>1</v>
       </c>
@@ -44308,8 +44388,14 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="inlineStr"/>
-      <c r="K1126" t="inlineStr"/>
+      <c r="J1126" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1126" t="n">
         <v>1</v>
       </c>
@@ -44341,8 +44427,14 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="inlineStr"/>
-      <c r="K1127" t="inlineStr"/>
+      <c r="J1127" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1127" t="n">
         <v>1</v>
       </c>
@@ -44374,8 +44466,14 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="inlineStr"/>
-      <c r="K1128" t="inlineStr"/>
+      <c r="J1128" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1128" t="n">
         <v>1</v>
       </c>
@@ -44404,15 +44502,23 @@
         <v>670257.50213301</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="inlineStr"/>
-      <c r="K1129" t="inlineStr"/>
+      <c r="J1129" t="n">
+        <v>228.8</v>
+      </c>
+      <c r="K1129" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L1129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1129" t="inlineStr"/>
+        <v>1.187307692307692</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>1.0004372540446</v>
+      </c>
     </row>
     <row r="1130">
       <c r="A1130" s="1" t="n">
@@ -44635,7 +44741,7 @@
         <v>739492.90321547</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -44668,7 +44774,7 @@
         <v>837503.9743154701</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -44701,7 +44807,7 @@
         <v>818312.0071154701</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -44734,7 +44840,7 @@
         <v>900138.7448154702</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -44767,7 +44873,7 @@
         <v>891707.0493785501</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -44800,7 +44906,7 @@
         <v>877953.8258785502</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -44833,7 +44939,7 @@
         <v>832552.0003785501</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -44866,7 +44972,7 @@
         <v>752476.0831785501</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -44899,7 +45005,7 @@
         <v>686395.5476785501</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -45064,7 +45170,7 @@
         <v>636332.03444373</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -45097,7 +45203,7 @@
         <v>613695.8128477701</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
